--- a/content/species/data/species_with_genuine_change.xlsx
+++ b/content/species/data/species_with_genuine_change.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\nba-species\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D447DB-C67D-47A6-AB24-06B88B5EB9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000B0959-3E23-4DB9-800E-33530D3C3CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="2520" windowWidth="17280" windowHeight="8880" xr2:uid="{55B356A0-7AFC-4775-A54D-DC2B101EB390}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55B356A0-7AFC-4775-A54D-DC2B101EB390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>[*Lobelia ardisiandroides*]\* (https://www.inaturalist.org/observations?taxon_id=589309)</t>
   </si>
   <si>
-    <t>[*Manulea robusta*]\** (https://www.inaturalist.org/observations?taxon_id=589636)</t>
-  </si>
-  <si>
     <t>[*Mitrophyllum mitratum*]\* (https://www.inaturalist.org/observations?taxon_id=590042)</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>[*Warburgia salutaris*]\* (https://www.inaturalist.org/observations?taxon_id=182206)</t>
+  </si>
+  <si>
+    <t>[*Manulea robusta*] (https://www.inaturalist.org/observations?taxon_id=589636)\ **</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D1EA64-8D47-4249-8911-29B04D5F4109}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,7 +850,7 @@
     </row>
     <row r="2" spans="1:8" ht="52.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>27</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>34</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>32</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>22</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>11</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>11</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>22</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="36" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>14</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="37" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>41</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="38" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>17</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>37</v>
